--- a/Project Literature Database.xlsx
+++ b/Project Literature Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\PhD Data Science\RADI 604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB80ADD-33BB-4F5D-81F3-98F15EA4048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE83801B-34B1-49A8-BF28-25581532E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67292E8D-253A-4BD8-A8FF-547CC84E0993}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Article Title</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Policy Primary Objective</t>
-  </si>
-  <si>
-    <t>Article Published Date</t>
   </si>
   <si>
     <t>Article Objectives</t>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cancer remains a national health priority in the country with significant implications for individuals, families, communities, and the health system. In response to this growing and alarming epidemic of cancer, there is a need to revisit and strengthen the Philippine Cancer Control Program </t>
-  </si>
-  <si>
-    <t>Sin or public health taxes are excise taxes imposed on the consumption of potentially harmful goods for health [sugar-sweetened beverages (SSBs), tobacco, alcohol, among others], aiming to reduce consumption, raise additional revenue and/or improve population health.</t>
   </si>
   <si>
     <t xml:space="preserve">The Effectiveness of MandatoryRandom Student Drug Testing </t>
@@ -308,6 +302,33 @@
   </si>
   <si>
     <t>Testing in higher educational institutions</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Published Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sin or public health taxes are excise taxes imposed on the consumption of potentially harmful goods for health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [sugar-sweetened beverages (SSBs), tobacco, alcohol, among others], aiming to reduce consumption, raise additional revenue and/or improve population health.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -351,7 +372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +382,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,6 +429,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,19 +752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B82B82-202F-4B2B-B054-967853A2B2FE}">
-  <dimension ref="B1:L15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="1" customWidth="1"/>
     <col min="7" max="7" width="50.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
@@ -733,12 +775,15 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -750,33 +795,34 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" s="5" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>2021</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="5">
         <v>2012</v>
@@ -785,134 +831,138 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="5" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>2022</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
         <v>1987</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5">
         <v>2022</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>2018</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
         <v>2010</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
         <v>2018</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>2016</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>2018</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -936,72 +986,72 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Project Literature Database.xlsx
+++ b/Project Literature Database.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\PhD Data Science\RADI 604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE83801B-34B1-49A8-BF28-25581532E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF310F-535E-4B30-A759-E6438EC70B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67292E8D-253A-4BD8-A8FF-547CC84E0993}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature" sheetId="1" r:id="rId1"/>
-    <sheet name="Scope" sheetId="2" r:id="rId2"/>
+    <sheet name="LawsBills" sheetId="3" r:id="rId2"/>
+    <sheet name="Scope" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>Article Title</t>
   </si>
@@ -330,12 +331,250 @@
       <t xml:space="preserve"> [sugar-sweetened beverages (SSBs), tobacco, alcohol, among others], aiming to reduce consumption, raise additional revenue and/or improve population health.</t>
     </r>
   </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Code Law</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Republic Act 11346</t>
+  </si>
+  <si>
+    <t>Tobacco Tax Law</t>
+  </si>
+  <si>
+    <t>An Act Increasing the Excise Tax on Tobacco Products, Imposing Excise Tax on Heated Tobacco Products and Vapor Products, Increasing the Penalties for Violations of Provisions on Articles Subject to Excise Tax, and Earmarking a Portion of the Total Excise Tax Collection from Sugar-Sweetened Beverages, Alcohol, Tobacco, Heated Tobacco and Vapor Products for Universal Health Care</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Governing Body</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>Suggested Retail Price: 10 pesos per pack of twenty units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>, (2) The rate of tax imposed under this Subsection shall be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> increased by five percent (5%) every year effective on January 1, 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, through revenue regulations issued by the Secretary of Finance.(3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>Heated tobacco products imported into the Philippines and destined for foreign countries shall not be allowed entry without posting a bond equivalent to the amount of customs duty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>, excise and value-added taxes due thereon if sold domestically.</t>
+    </r>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Same penalties from RA 9211 tobacco Regulation Act of 2003</t>
+  </si>
+  <si>
+    <t>Bureau of Internal Revenue (Price surveys), Department of Finance (Revenue Regulations), Department of Health (Universal Health Care Law)</t>
+  </si>
+  <si>
+    <t>NCD</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Amendments on Excise Tax on Alcohol Products</t>
+  </si>
+  <si>
+    <t>Republic Act 11467</t>
+  </si>
+  <si>
+    <t>AN ACT AMENDING SECTIONS 109,141, 142, 143,144, 147, 152, 263, 263-A, 265, AND 288-A, AND ADDING A NEW SECTION 290-A TO REPUBLIC ACT NO. 8424, AS AMENDED, OTHERWISE KNOWN AS THE NATIONAL INTERNAL REVENUE CODE OF 1997, AND FOE OTHER PURPOSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bureau of Internal Revenue </t>
+  </si>
+  <si>
+    <t>Cancellation or withdrawal of his or its permit to engage in business as brewer, manufacturer or importer of fermented liquor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) TAX EXEMPTIONS: Sale or importation of prescription drugs and medicines for Diabetes, high cholesterol, and hypertension beginning January 1, 2020; Cancer, mental illness, tuberculosis, and kidney diseases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2) An ad valorem tax equivalent to twenty-two percent (22%) of the net retail price (excluding the excise , tax and the value-added tax) perproof (3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excise tax shall be levied, assessed and collected on SPIRITS, WINES, VAPOR PRODUCTS, NICOTINE SALT</t>
+    </r>
+  </si>
+  <si>
+    <t>Republic Act 10351</t>
+  </si>
+  <si>
+    <t>Sin Tax Reform Law</t>
+  </si>
+  <si>
+    <t>Republic Act No. 10351 or the Sin Tax Reform Act of 2012 aims to address the smoking problem in the country. The law changed the tax structure drastically by imposing higher taxes on tobacco products, leading to higher prices. The goal is to prevent smoking initiation and promote cessation</t>
+  </si>
+  <si>
+    <t>Republic Act 10963</t>
+  </si>
+  <si>
+    <t>Tobacco, Alcohol</t>
+  </si>
+  <si>
+    <t>(1) . Shipment or removal of liquor or tobacco products under false name or brand or as an imitation of any existing or otherwise known product name or brand (2) Cigarettes packed by machine NCRP to be increased by 4% every year thereafter</t>
+  </si>
+  <si>
+    <t>Tax Reform for Acceleration and Inclusion (Package 2+)</t>
+  </si>
+  <si>
+    <t>Republic Act 10643</t>
+  </si>
+  <si>
+    <t>Graphic Health Warnings Law</t>
+  </si>
+  <si>
+    <t>Department of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tobacco Regulation Act of 2003</t>
+  </si>
+  <si>
+    <t>Republic Act 8424</t>
+  </si>
+  <si>
+    <t>National Tobacco Administration, Bureau of Internal Revenue, Department of Health</t>
+  </si>
+  <si>
+    <t>The first comprehensive tobacco control legislation in the Philippines. It prohibits smoking in public places and sales to minors; places new restrictions on tobacco product packaging and labeling; increases regulation of promotion and sponsorship activities of tobacco companies; and establishes the Inter-Agency Committee for Tobacco (IAC-T), one of the first government-mandated inter-agencies charged with implementing tobacco control policies. The law bans most tobacco product advertising, with the notable exception of advertising at point-of-sale.</t>
+  </si>
+  <si>
+    <t>An Act Amending the National Internal Revenue Code as Amended and for other purposes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key provisions include removal of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>price classification freeze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>indexation of tax rates to inflation; bringing the tax structure for distilled spirits into compliance with World Trade Organization international trade rules; earmarking of revenues for health and tobacco-growing regions, and a timeline for transitioning alcohol and cigarette taxes to unitary, or uniform, tax rates.</t>
+    </r>
+  </si>
+  <si>
+    <t>Beginning in 2016, the law requires cigarette manufacturers to place graphic health warnings on 50% of each of the principal display areas of cigarette packs. No person or legal entity shall sell or commercially distribute or display any cigarette or tobacco product without ensuring that the labels and packages, as well as any other container used in displaying the cigarette or tobacco products, meet the requirements under this Act</t>
+  </si>
+  <si>
+    <t>A fine of not more than Five hundred thousand pesos (P500,000.00), 1M pesos (second offense), and imprisonment for five years and 2M pesos offense for third offense</t>
+  </si>
+  <si>
+    <t>AN ACT TO EFFECTIVELY INSTILL HEALTH CONSIOUSNESS THROUGH GRAPHIC HEALTH WARNINGS ON TOBACCO PRODUCTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +610,46 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +674,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,6 +720,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B82B82-202F-4B2B-B054-967853A2B2FE}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -849,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -969,11 +1270,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B81068-4C8F-454D-8AF5-54AC11986434}">
+  <dimension ref="A2:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2003</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2014</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B982F98-036A-4D80-8A5B-D2474A3380C3}">
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
